--- a/Сжатие/Перестановки.xlsx
+++ b/Сжатие/Перестановки.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Библиотека\НВГУ\Robotics\Solver3\Сжатие\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DD8213-4FF2-4B00-8FA9-CB30283FAA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5025483-D0B0-44AE-B639-3AB040B191E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2CE41FB3-BC69-456C-A510-7A711A30CA14}"/>
+    <workbookView xWindow="9972" yWindow="2112" windowWidth="10272" windowHeight="8964" firstSheet="1" activeTab="2" xr2:uid="{2CE41FB3-BC69-456C-A510-7A711A30CA14}"/>
   </bookViews>
   <sheets>
     <sheet name="Инверсии" sheetId="1" r:id="rId1"/>
     <sheet name="Положение" sheetId="2" r:id="rId2"/>
+    <sheet name="Массив по размеру" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>n</t>
   </si>
@@ -86,13 +87,31 @@
   </si>
   <si>
     <t>Доп сжатие инверсиями</t>
+  </si>
+  <si>
+    <t>Индекс</t>
+  </si>
+  <si>
+    <t>Наибольшее число</t>
+  </si>
+  <si>
+    <t>Размер</t>
+  </si>
+  <si>
+    <t>битов</t>
+  </si>
+  <si>
+    <t>байтов</t>
+  </si>
+  <si>
+    <t>Неиспользуемые биты</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,16 +120,36 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -118,13 +157,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -442,7 +508,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,10 +670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6168835A-FDD4-49E6-A006-E088C05A43A0}">
-  <dimension ref="A1:AP11"/>
+  <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,79 +1019,253 @@
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4">
+        <f>C1-1</f>
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:AC3" si="2">D1-1</f>
+        <v>13</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="O3" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="T3" s="4">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <f>CEILING(SUM(C2:AP2)/8,1)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
-        <f>CEILING(LOG(FACT(C1),2),1)/(C3*8)</f>
+      <c r="C5" s="1">
+        <f>CEILING(LOG(FACT(C1),2),1)/(C4*8)</f>
         <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <f>MOD(SUM(C2:AP2),8)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <f>C1-2^(C2-1)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
-        <f>IF(C6&lt;2^(C2-2),C6,2^(C2-1)-C6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <f>SUM(C2:AP2)-C7</f>
-        <v>44</v>
-      </c>
-    </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <f>_xlfn.CEILING.MATH(C8/8,1)</f>
-        <v>6</v>
+        <f>IF(C8&lt;2^(C2-2),C8,2^(C2-1)-C8)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C2:AP2)-C9</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <f>_xlfn.CEILING.MATH(C10/8,1)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1">
-        <f>CEILING(LOG(FACT(C1),2),1)/(C9*8)</f>
+      <c r="C12" s="1">
+        <f>CEILING(LOG(FACT(C1),2),1)/(C11*8)</f>
         <v>0.85416666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
         <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102E8C5A-EF91-4E48-90B0-927E6AE1F8FF}">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <f>CEILING(LOG(B2,2),1)*B3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <f>INT(B4/8) + IF(MOD(B4,8)&gt;0,1,0)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
